--- a/biology/Médecine/Dr._Hauschka/Dr._Hauschka.xlsx
+++ b/biology/Médecine/Dr._Hauschka/Dr._Hauschka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dr. Hauschka est une entreprise allemande de cosmétique qui produit des produits de soins naturels en utilisant l'agriculture biodynamique, le commerce équitable et des ingrédients produits de manière durable[1].
+Dr. Hauschka est une entreprise allemande de cosmétique qui produit des produits de soins naturels en utilisant l'agriculture biodynamique, le commerce équitable et des ingrédients produits de manière durable.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dr. Hauschka a été fondée en 1967 en Allemagne par le chimiste Rudolf Hauschka[2],[3]. Hauschka avait cofondé WALA Heilmittel ("WALA"), une société pharmaceutique holistique, en 1935[4],[5]. Le concept de l'entreprise, utilisant des ingrédients holistiques pour créer des médicaments, a été inspiré par le travail d'agriculture biologique de Rudolf Steiner[6]. L'esthéticienne Elisabeth Sigmund a contacté Hauschka au début des années 1960 au sujet de ses recherches sur l'utilisation des herbes dans les soins de la peau. Sigmund et Hauschka ont travaillé ensemble pendant deux ans pour créer ce qui allait devenir le Dr. Hauschka[4].
-Le premier produit créé était une huile pour le visage à base d'huiles essentielles[3].
-En 2017, la marque a lancé une ligne de maquillage[7]. Depuis 2019, Martina Joseph est PDG de Dr. Hauschka[2],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dr. Hauschka a été fondée en 1967 en Allemagne par le chimiste Rudolf Hauschka,. Hauschka avait cofondé WALA Heilmittel ("WALA"), une société pharmaceutique holistique, en 1935,. Le concept de l'entreprise, utilisant des ingrédients holistiques pour créer des médicaments, a été inspiré par le travail d'agriculture biologique de Rudolf Steiner. L'esthéticienne Elisabeth Sigmund a contacté Hauschka au début des années 1960 au sujet de ses recherches sur l'utilisation des herbes dans les soins de la peau. Sigmund et Hauschka ont travaillé ensemble pendant deux ans pour créer ce qui allait devenir le Dr. Hauschka.
+Le premier produit créé était une huile pour le visage à base d'huiles essentielles.
+En 2017, la marque a lancé une ligne de maquillage. Depuis 2019, Martina Joseph est PDG de Dr. Hauschka,.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entreprise fabrique des produits pour le visage et le corps, notamment des crèmes pour le visage, des soins capillaires, du maquillage, des produits bronzants, des huiles de bain et des déodorants[9],[10]. Dr. Hauschka utilise des ingrédients biologiques et biodynamiques cultivés en entreprise -fermes allemandes détenues et exploitées[2].
-Les produits de la marque ont été approuvés par Jennifer Lopez, Anne Hathaway, Julia Roberts, Jennifer Aniston et Nikki Reed[8],[11],[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise fabrique des produits pour le visage et le corps, notamment des crèmes pour le visage, des soins capillaires, du maquillage, des produits bronzants, des huiles de bain et des déodorants,. Dr. Hauschka utilise des ingrédients biologiques et biodynamiques cultivés en entreprise -fermes allemandes détenues et exploitées.
+Les produits de la marque ont été approuvés par Jennifer Lopez, Anne Hathaway, Julia Roberts, Jennifer Aniston et Nikki Reed.
 Les esthéticiennes sont formées à l'Académie Dr. Hauschka en Allemagne. À l’académie, on leur apprend les produits et comment prodiguer des soins du visage.
 </t>
         </is>
@@ -578,7 +594,9 @@
           <t>Lectures complémentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kurz, SW, Monte, T. (2006). « L'éveil de la beauté : la voie du Dr Hauschka. » Royaume-Uni : Clairview Books.  (ISBN 9781905570034)</t>
         </is>
